--- a/project/service/recsys/categories.xlsx
+++ b/project/service/recsys/categories.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="12">
   <si>
     <t xml:space="preserve">categoryID</t>
   </si>
@@ -433,10 +433,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D70"/>
+  <dimension ref="A1:D69"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -807,7 +807,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="0" t="n">
-        <v>486542</v>
+        <v>118922</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>6</v>
@@ -821,7 +821,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="0" t="n">
-        <v>118922</v>
+        <v>373649</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>6</v>
@@ -835,7 +835,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="0" t="n">
-        <v>373649</v>
+        <v>225106</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>6</v>
@@ -849,13 +849,13 @@
         <v>28</v>
       </c>
       <c r="B30" s="0" t="n">
-        <v>225106</v>
+        <v>445860</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D30" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -863,7 +863,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="0" t="n">
-        <v>445860</v>
+        <v>445861</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>7</v>
@@ -877,7 +877,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="0" t="n">
-        <v>445861</v>
+        <v>445862</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>7</v>
@@ -891,7 +891,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="0" t="n">
-        <v>445862</v>
+        <v>445863</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>7</v>
@@ -905,7 +905,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="0" t="n">
-        <v>445863</v>
+        <v>446151</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>7</v>
@@ -919,7 +919,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="0" t="n">
-        <v>446151</v>
+        <v>509026</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>7</v>
@@ -933,10 +933,10 @@
         <v>34</v>
       </c>
       <c r="B36" s="0" t="n">
-        <v>509026</v>
+        <v>119522</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D36" s="0" t="n">
         <v>1</v>
@@ -947,7 +947,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="0" t="n">
-        <v>119522</v>
+        <v>119499</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>8</v>
@@ -961,7 +961,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="0" t="n">
-        <v>119499</v>
+        <v>120216</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>8</v>
@@ -975,7 +975,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="0" t="n">
-        <v>120216</v>
+        <v>119501</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>8</v>
@@ -989,7 +989,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="0" t="n">
-        <v>119501</v>
+        <v>119502</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>8</v>
@@ -1003,7 +1003,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="0" t="n">
-        <v>119502</v>
+        <v>119503</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>8</v>
@@ -1017,7 +1017,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="0" t="n">
-        <v>119503</v>
+        <v>119504</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>8</v>
@@ -1031,7 +1031,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="0" t="n">
-        <v>119504</v>
+        <v>119505</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>8</v>
@@ -1045,7 +1045,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="0" t="n">
-        <v>119505</v>
+        <v>119506</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>8</v>
@@ -1059,7 +1059,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="0" t="n">
-        <v>119506</v>
+        <v>120217</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>8</v>
@@ -1073,7 +1073,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="0" t="n">
-        <v>120217</v>
+        <v>445864</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>8</v>
@@ -1087,10 +1087,10 @@
         <v>45</v>
       </c>
       <c r="B47" s="0" t="n">
-        <v>445864</v>
+        <v>486332</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" s="0" t="n">
         <v>1</v>
@@ -1101,7 +1101,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="0" t="n">
-        <v>486332</v>
+        <v>486342</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
@@ -1115,10 +1115,10 @@
         <v>47</v>
       </c>
       <c r="B49" s="0" t="n">
-        <v>486342</v>
+        <v>119567</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" s="0" t="n">
         <v>1</v>
@@ -1129,7 +1129,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="0" t="n">
-        <v>119567</v>
+        <v>119562</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>10</v>
@@ -1143,7 +1143,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="0" t="n">
-        <v>119562</v>
+        <v>119561</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>10</v>
@@ -1157,7 +1157,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="0" t="n">
-        <v>119561</v>
+        <v>157054</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>10</v>
@@ -1171,7 +1171,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="0" t="n">
-        <v>157054</v>
+        <v>119558</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>10</v>
@@ -1185,7 +1185,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="0" t="n">
-        <v>119558</v>
+        <v>385076</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>10</v>
@@ -1199,7 +1199,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="0" t="n">
-        <v>385076</v>
+        <v>119568</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>10</v>
@@ -1213,7 +1213,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="0" t="n">
-        <v>119568</v>
+        <v>486545</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>10</v>
@@ -1227,7 +1227,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="0" t="n">
-        <v>486545</v>
+        <v>119564</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>10</v>
@@ -1241,7 +1241,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="0" t="n">
-        <v>119564</v>
+        <v>119559</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>10</v>
@@ -1255,7 +1255,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="0" t="n">
-        <v>119559</v>
+        <v>225107</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>10</v>
@@ -1269,13 +1269,13 @@
         <v>58</v>
       </c>
       <c r="B60" s="0" t="n">
-        <v>225107</v>
+        <v>381523</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D60" s="0" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1283,7 +1283,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="0" t="n">
-        <v>381523</v>
+        <v>381526</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>11</v>
@@ -1297,7 +1297,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="0" t="n">
-        <v>381526</v>
+        <v>381527</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>11</v>
@@ -1311,7 +1311,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="0" t="n">
-        <v>381527</v>
+        <v>381528</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>11</v>
@@ -1325,7 +1325,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="0" t="n">
-        <v>381528</v>
+        <v>381529</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>11</v>
@@ -1339,7 +1339,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="0" t="n">
-        <v>381529</v>
+        <v>381532</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>11</v>
@@ -1353,7 +1353,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="0" t="n">
-        <v>381532</v>
+        <v>381535</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>11</v>
@@ -1367,7 +1367,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="0" t="n">
-        <v>381535</v>
+        <v>381538</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>11</v>
@@ -1381,7 +1381,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="0" t="n">
-        <v>381538</v>
+        <v>381539</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>11</v>
@@ -1395,26 +1395,12 @@
         <v>67</v>
       </c>
       <c r="B69" s="0" t="n">
-        <v>381539</v>
+        <v>381540</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D69" s="0" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" s="0" t="n">
-        <v>381540</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D70" s="0" t="n">
         <v>-1</v>
       </c>
     </row>
